--- a/Brighway/Results/Ananas - test.xlsx
+++ b/Brighway/Results/Ananas - test.xlsx
@@ -14,11 +14,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>('EF v3.1 EN15804', 'acidification', 'accumulated exceedance (AE)')</t>
+  </si>
   <si>
     <t>('EF v3.1 EN15804', 'climate change', 'global warming potential (GWP100)')</t>
   </si>
   <si>
+    <t>('EF v3.1 EN15804', 'ecotoxicity: freshwater', 'comparative toxic unit for ecosystems (CTUe)')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'energy resources: non-renewable', 'abiotic depletion potential (ADP): fossil fuels')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'eutrophication: freshwater', 'fraction of nutrients reaching freshwater end compartment (P)')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'eutrophication: marine', 'fraction of nutrients reaching marine end compartment (N)')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'eutrophication: terrestrial', 'accumulated exceedance (AE)')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'human toxicity: carcinogenic', 'comparative toxic unit for human (CTUh)')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'human toxicity: non-carcinogenic', 'comparative toxic unit for human (CTUh)')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'ionising radiation: human health', 'human exposure efficiency relative to u235')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'land use', 'soil quality index')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'material resources: metals/minerals', 'abiotic depletion potential (ADP): elements (ultimate reserves)')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'ozone depletion', 'ozone depletion potential (ODP)')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'particulate matter formation', 'impact on human health')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'photochemical oxidant formation: human health', 'tropospheric ozone concentration increase')</t>
+  </si>
+  <si>
+    <t>('EF v3.1 EN15804', 'water use', 'user deprivation potential (deprivation-weighted water consumption)')</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 2.4821260976820004e-05], ["nitrous oxide production", 0.010968005818038482], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 0.0015934554481004321]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 0.033699763481384294], ["Steel cylinder", 2.4821260976820004e-05], ["nitrous oxide production", 0.010968005818038482], ["Use phase CDU", 0.0011995761189071566], ["EoL CDU", 0.0012242722397637902], ["EoL 50L cylinder - FU", 0.0015934554481004321]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 0.06909101812686011], ["Steel cylinder", 2.4821260976820004e-05], ["nitrous oxide production", 0.010968005818038482], ["Use phase MDU", 0.00045196796330177], ["EoL MDU", 0.007055424060427032], ["EoL 50L cylinder - FU", 0.0015934554481004321]]</t>
+  </si>
+  <si>
     <t>[["Steel cylinder", 0.005456229514756893], ["nitrous oxide production", 2.7735767368862367], ["Use phase basecase", 227.34409189224243], ["EoL 50L cylinder - FU", 1.3797549866934615]]</t>
   </si>
   <si>
@@ -26,6 +80,132 @@
   </si>
   <si>
     <t>[["MDU updated", 0.3591249304907266], ["Steel cylinder", 0.005456229514756893], ["nitrous oxide production", 2.7735767368862367], ["Use phase MDU", 43.404329830371644], ["EoL MDU", -0.0070986448114089525], ["EoL 50L cylinder - FU", 1.3797549866934615]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 0.02689681145503979], ["nitrous oxide production", 15.635308294302359], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 2.5968806464953906]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 1.4755335896694415], ["Steel cylinder", 0.02689681145503979], ["nitrous oxide production", 15.635308294302359], ["Use phase CDU", 0.7412027382264046], ["EoL CDU", -0.004626877616344883], ["EoL 50L cylinder - FU", 2.5968806464953906]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 5.562379935751366], ["Steel cylinder", 0.02689681145503979], ["nitrous oxide production", 15.635308294302359], ["Use phase MDU", 0.2792652226980472], ["EoL MDU", -0.10380338196557717], ["EoL 50L cylinder - FU", 2.5968806464953906]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 0.06471586600422786], ["nitrous oxide production", 46.31028189903245], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 6.953517004338244]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 2.094289083153275], ["Steel cylinder", 0.06471586600422786], ["nitrous oxide production", 46.31028189903245], ["Use phase CDU", 0.6692525250789959], ["EoL CDU", 0.0023623570522492655], ["EoL 50L cylinder - FU", 6.953517004338244]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 5.548337101274091], ["Steel cylinder", 0.06471586600422786], ["nitrous oxide production", 46.31028189903245], ["Use phase MDU", 0.2521563208261186], ["EoL MDU", -0.03427735018172776], ["EoL 50L cylinder - FU", 6.953517004338244]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 4.164145755153704e-06], ["nitrous oxide production", 0.0009169092173445685], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 0.0001231153606355252]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 0.00010946578693302614], ["Steel cylinder", 4.164145755153704e-06], ["nitrous oxide production", 0.0009169092173445685], ["Use phase CDU", 2.849641883337073e-05], ["EoL CDU", -6.603880166606268e-07], ["EoL 50L cylinder - FU", 0.0001231153606355252]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 0.0003663742164005576], ["Steel cylinder", 4.164145755153704e-06], ["nitrous oxide production", 0.0009169092173445685], ["Use phase MDU", 1.073668288198834e-05], ["EoL MDU", -9.489777176417246e-06], ["EoL 50L cylinder - FU", 0.0001231153606355252]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 5.439366377934605e-06], ["nitrous oxide production", 0.005230909219588117], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 0.0006537394847833525]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 0.00012323944886451918], ["Steel cylinder", 5.439366377934605e-06], ["nitrous oxide production", 0.005230909219588117], ["Use phase CDU", 0.00027925130312526306], ["EoL CDU", -6.2441110170754856e-06], ["EoL 50L cylinder - FU", 0.0006537394847833525]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 0.000361856412791819], ["Steel cylinder", 5.439366377934605e-06], ["nitrous oxide production", 0.005230909219588117], ["Use phase MDU", 0.00010521436758666906], ["EoL MDU", -4.8532739762006666e-05], ["EoL 50L cylinder - FU", 0.0006537394847833525]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 5.1440088432858044e-05], ["nitrous oxide production", 0.029899230463375122], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 0.004205256078726926]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 0.001291805268237013], ["Steel cylinder", 5.1440088432858044e-05], ["nitrous oxide production", 0.029899230463375122], ["Use phase CDU", 0.004351892777136212], ["EoL CDU", -9.307467647554836e-05], ["EoL 50L cylinder - FU", 0.004205256078726926]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 0.0037610866718165645], ["Steel cylinder", 5.1440088432858044e-05], ["nitrous oxide production", 0.029899230463375122], ["Use phase MDU", 0.0016396759521870126], ["EoL MDU", -0.0007152441329165199], ["EoL 50L cylinder - FU", 0.004205256078726926]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 8.120702205798173e-11], ["nitrous oxide production", 1.3815806307562065e-09], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 2.4542745026166035e-10]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 3.23120762737068e-10], ["Steel cylinder", 8.120702205798173e-11], ["nitrous oxide production", 1.3815806307562065e-09], ["Use phase CDU", 3.112433080587344e-10], ["EoL CDU", -7.707922940565687e-12], ["EoL 50L cylinder - FU", 2.4542745026166035e-10]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 1.0716849152239044e-09], ["Steel cylinder", 8.120702205798173e-11], ["nitrous oxide production", 1.3815806307562065e-09], ["Use phase MDU", 1.1726809313497473e-10], ["EoL MDU", -8.165715833980981e-11], ["EoL 50L cylinder - FU", 2.4542745026166035e-10]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 6.725000501277105e-11], ["nitrous oxide production", 2.7210021087733674e-08], ["Use phase basecase", 1.3361670158765134e-08], ["EoL 50L cylinder - FU", 5.05522698476935e-09]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 4.527936227184927e-09], ["Steel cylinder", 6.725000501277105e-11], ["nitrous oxide production", 2.7210021087733674e-08], ["Use phase CDU", 1.1108940558000346e-08], ["EoL CDU", -2.91480127867933e-10], ["EoL 50L cylinder - FU", 5.05522698476935e-09]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 1.1984131035265172e-08], ["Steel cylinder", 6.725000501277105e-11], ["nitrous oxide production", 2.7210021087733674e-08], ["Use phase MDU", 5.7744917398854014e-09], ["EoL MDU", -4.293254963228643e-09], ["EoL 50L cylinder - FU", 5.05522698476935e-09]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 3.451402200181894e-05], ["nitrous oxide production", 0.42490983327819815], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 0.052218194515324355]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 0.022953633802310615], ["Steel cylinder", 3.451402200181894e-05], ["nitrous oxide production", 0.42490983327819815], ["Use phase CDU", 0.00034780368107774893], ["EoL CDU", 0.00011107874461068391], ["EoL 50L cylinder - FU", 0.052218194515324355]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 0.05186765582765432], ["Steel cylinder", 3.451402200181894e-05], ["nitrous oxide production", 0.42490983327819815], ["Use phase MDU", 0.00013104305669854347], ["EoL MDU", 0.0005209868928899672], ["EoL 50L cylinder - FU", 0.052218194515324355]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 0.05341058184255911], ["nitrous oxide production", 28.792690550160245], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 4.553405133415671]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 1.4453593855555278], ["Steel cylinder", 0.05341058184255911], ["nitrous oxide production", 28.792690550160245], ["Use phase CDU", 30.062931903317136], ["EoL CDU", -0.02832465624823723], ["EoL 50L cylinder - FU", 4.553405133415671]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 3.6900959224740673], ["Steel cylinder", 0.05341058184255911], ["nitrous oxide production", 28.792690550160245], ["Use phase MDU", 11.326902802631512], ["EoL MDU", -0.29824717604918993], ["EoL 50L cylinder - FU", 4.553405133415671]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", -6.260798244751308e-08], ["nitrous oxide production", 3.528425210128439e-05], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 5.124795525628333e-06]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 2.3204757355396628e-05], ["Steel cylinder", -6.260798244751308e-08], ["nitrous oxide production", 3.528425210128439e-05], ["Use phase CDU", 9.73441196893503e-06], ["EoL CDU", 7.408005945760737e-07], ["EoL 50L cylinder - FU", 5.124795525628333e-06]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 7.762141348560289e-05], ["Steel cylinder", -6.260798244751308e-08], ["nitrous oxide production", 3.528425210128439e-05], ["Use phase MDU", 3.6676641708639582e-06], ["EoL MDU", -8.07769332375321e-07], ["EoL 50L cylinder - FU", 5.124795525628333e-06]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 1.232676817653973e-10], ["nitrous oxide production", 8.530261057304866e-08], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 1.043284139163744e-07]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 6.412188285949878e-09], ["Steel cylinder", 1.232676817653973e-10], ["nitrous oxide production", 8.530261057304866e-08], ["Use phase CDU", 1.9450074604811147e-09], ["EoL CDU", 1.3108767544701095e-11], ["EoL 50L cylinder - FU", 1.043284139163744e-07]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 1.8962760185311458e-08], ["Steel cylinder", 1.232676817653973e-10], ["nitrous oxide production", 8.530261057304866e-08], ["Use phase MDU", 7.328264098056545e-10], ["EoL MDU", 2.667194990667454e-11], ["EoL 50L cylinder - FU", 1.043284139163744e-07]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 5.476745429210785e-10], ["nitrous oxide production", 5.905655038504484e-08], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 1.604819459417503e-08]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 2.9190976038666193e-08], ["Steel cylinder", 5.476745429210785e-10], ["nitrous oxide production", 5.905655038504484e-08], ["Use phase CDU", 1.3992546508923827e-08], ["EoL CDU", 7.644866224450964e-10], ["EoL 50L cylinder - FU", 1.604819459417503e-08]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 6.342169280380604e-08], ["Steel cylinder", 5.476745429210785e-10], ["nitrous oxide production", 5.905655038504484e-08], ["Use phase MDU", 5.272014545275251e-09], ["EoL MDU", 4.049234970385121e-09], ["EoL 50L cylinder - FU", 1.604819459417503e-08]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 2.334134230290092e-05], ["nitrous oxide production", 0.007059262000778557], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 0.0012673930560681216]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 0.002678400846522548], ["Steel cylinder", 2.334134230290092e-05], ["nitrous oxide production", 0.007059262000778557], ["Use phase CDU", 0.0008604984653242085], ["EoL CDU", 5.4636027418626265e-05], ["EoL 50L cylinder - FU", 0.0012673930560681216]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 0.005810953630291378], ["Steel cylinder", 2.334134230290092e-05], ["nitrous oxide production", 0.007059262000778557], ["Use phase MDU", 0.000324212638670387], ["EoL MDU", 0.0002787249201572001], ["EoL 50L cylinder - FU", 0.0012673930560681216]]</t>
+  </si>
+  <si>
+    <t>[["Steel cylinder", 0.0015157174317935512], ["nitrous oxide production", 4.430496838846222], ["Use phase basecase", 0.0], ["EoL 50L cylinder - FU", 0.4699444626920632]]</t>
+  </si>
+  <si>
+    <t>[["CDU updated", 0.04610221142028905], ["Steel cylinder", 0.0015157174317935512], ["nitrous oxide production", 4.430496838846222], ["Use phase CDU", 0.026577952306826722], ["EoL CDU", 0.000897610415032529], ["EoL 50L cylinder - FU", 0.4699444626920632]]</t>
+  </si>
+  <si>
+    <t>[["MDU updated", 0.1236924037638626], ["Steel cylinder", 0.0015157174317935512], ["nitrous oxide production", 4.430496838846222], ["Use phase MDU", 0.01001385638102837], ["EoL MDU", 0.004563970418034172], ["EoL 50L cylinder - FU", 0.4699444626920632]]</t>
   </si>
 </sst>
 </file>
@@ -383,30 +563,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
